--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="323">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -885,14 +885,116 @@
     <t>Group.member.entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Device|Medication|Substance|Group)
+    <t xml:space="preserve">Reference(https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/ncpi-participant)
 </t>
   </si>
   <si>
-    <t>Reference to the group member</t>
+    <t>The participant we are describing.</t>
   </si>
   <si>
     <t>A reference to the entity that is a member of the group. Must be consistent with Group.type. If the entity is another group, then the type must be the same.</t>
+  </si>
+  <si>
+    <t>Group.member.entity.id</t>
+  </si>
+  <si>
+    <t>Group.member.entity.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Group.member.entity.extension:family-role</t>
+  </si>
+  <si>
+    <t>family-role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/family-role}
+</t>
+  </si>
+  <si>
+    <t>The role this individual has in the family, specifically with respect to a proband or index participant</t>
+  </si>
+  <si>
+    <t>Extension containing Family Role</t>
+  </si>
+  <si>
+    <t>Group.member.entity.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Group.member.entity.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Group.member.entity.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Group.member.entity.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Group.member.period</t>
@@ -1227,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1236,7 +1338,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1246,7 +1348,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1264,7 +1366,7 @@
     <col min="26" max="26" width="41.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4542,7 +4644,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -5095,24 +5197,20 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q36" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5156,7 +5254,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5168,10 +5266,10 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5179,21 +5277,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5205,85 +5303,841 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="L44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>20</v>
       </c>
     </row>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1338,17 +1338,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.43359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.62109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1357,24 +1357,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.63671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="35.6953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="188.46875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="161.578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="320">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -260,13 +260,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}grp-1:Can only have members if group is "actual" {member.empty() or (actual = true)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}grp-1:Can only have members if group is "actual" {member.empty() or (actual = true)}</t>
   </si>
   <si>
     <t>Entity[determinerCode="GRP" or determinerCode="GRP_KIND"]</t>
-  </si>
-  <si>
-    <t>administrative.group</t>
   </si>
   <si>
     <t>Group.id</t>
@@ -352,7 +349,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -410,10 +407,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -464,10 +457,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Group.extension:description</t>
   </si>
   <si>
@@ -530,7 +519,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -604,7 +593,7 @@
     <t>Types of resources that are part of group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/group-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/group-type|4.0.1</t>
   </si>
   <si>
     <t>person: ./classCode="PSN"  animal: ./classCode="ANM"  device: ./classCode="DEV"  medication: ./classCode="MMAT" and ./playedRole[isNormalRole() and classCode="THER"]  food: ./classCode="FOOD"</t>
@@ -736,10 +725,6 @@
     <t>Needs to be a generic mechanism for identifying what individuals can be part of a group.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>./playedRole[isNormalRole()]/participation[isNormalParticipation() and typeCode="SBJ"]/act[isNormalAct and classCode="OBS" and moodCode="EVN"]</t>
   </si>
   <si>
@@ -953,6 +938,9 @@
   </si>
   <si>
     <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1598,15 +1586,15 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1614,31 +1602,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1688,13 +1676,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1711,10 +1699,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1725,25 +1713,25 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1794,19 +1782,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1817,10 +1805,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1831,28 +1819,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1902,19 +1890,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1925,10 +1913,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1939,7 +1927,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1951,16 +1939,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1986,43 +1974,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2033,21 +2021,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2059,16 +2047,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2118,22 +2106,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2141,14 +2129,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2167,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2226,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2238,10 +2226,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2249,10 +2237,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2275,13 +2263,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2320,17 +2308,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2342,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2353,13 +2341,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
@@ -2369,7 +2357,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2381,13 +2369,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2438,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2447,10 +2435,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2461,13 +2449,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -2477,7 +2465,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2489,13 +2477,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2546,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2555,10 +2543,10 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -2569,13 +2557,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -2585,7 +2573,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2597,13 +2585,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2654,7 +2642,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2663,10 +2651,10 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -2677,13 +2665,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
@@ -2693,7 +2681,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2705,13 +2693,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2762,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2771,10 +2759,10 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -2785,14 +2773,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2805,25 +2793,25 @@
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2872,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2884,10 +2872,10 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -2895,10 +2883,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2918,20 +2906,20 @@
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -2980,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2992,21 +2980,21 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3017,106 +3005,106 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3124,34 +3112,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3176,57 +3164,57 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3234,32 +3222,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3308,33 +3296,33 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3345,28 +3333,28 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3392,57 +3380,57 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3453,29 +3441,29 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3524,22 +3512,22 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3547,10 +3535,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3561,31 +3549,31 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3634,22 +3622,22 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3657,10 +3645,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3671,28 +3659,28 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3742,19 +3730,19 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
@@ -3765,10 +3753,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3791,19 +3779,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -3852,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3864,10 +3852,10 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -3875,10 +3863,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3889,7 +3877,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3901,13 +3889,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3958,13 +3946,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -3973,7 +3961,7 @@
         <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -3981,14 +3969,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4007,16 +3995,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4066,7 +4054,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4078,10 +4066,10 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4089,14 +4077,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4109,25 +4097,25 @@
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4176,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4188,10 +4176,10 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4199,10 +4187,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4210,10 +4198,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4225,17 +4213,17 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4260,10 +4248,10 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>20</v>
@@ -4284,22 +4272,22 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4307,10 +4295,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4318,10 +4306,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4333,19 +4321,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4370,10 +4358,10 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>20</v>
@@ -4394,22 +4382,22 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4417,10 +4405,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4428,10 +4416,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4443,19 +4431,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4504,22 +4492,22 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4527,10 +4515,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4541,7 +4529,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4553,13 +4541,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4610,19 +4598,19 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -4633,10 +4621,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4644,7 +4632,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -4659,17 +4647,17 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -4718,7 +4706,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4727,13 +4715,13 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -4741,10 +4729,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4755,7 +4743,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4767,13 +4755,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4824,13 +4812,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -4839,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -4847,14 +4835,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4873,16 +4861,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4932,7 +4920,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4944,10 +4932,10 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -4955,14 +4943,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4975,25 +4963,25 @@
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5042,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5054,10 +5042,10 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -5065,10 +5053,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5076,10 +5064,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5091,13 +5079,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5148,19 +5136,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5171,10 +5159,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5185,7 +5173,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5197,13 +5185,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5254,13 +5242,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -5269,7 +5257,7 @@
         <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5277,14 +5265,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5303,16 +5291,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5350,19 +5338,19 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5374,10 +5362,10 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5385,13 +5373,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>20</v>
@@ -5401,7 +5389,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5413,13 +5401,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5470,7 +5458,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5482,7 +5470,7 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -5493,10 +5481,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5507,28 +5495,28 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5578,22 +5566,22 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -5601,10 +5589,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5615,28 +5603,28 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5662,11 +5650,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -5684,22 +5674,22 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
@@ -5707,10 +5697,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5721,28 +5711,28 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5792,22 +5782,22 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -5815,10 +5805,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5829,28 +5819,28 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5900,22 +5890,22 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
@@ -5923,10 +5913,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5937,7 +5927,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -5949,23 +5939,23 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>20</v>
@@ -6010,19 +6000,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6033,10 +6023,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6047,7 +6037,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6059,23 +6049,23 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q44" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>20</v>
@@ -6120,19 +6110,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -437,10 +437,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Group.extension:family-type</t>
-  </si>
-  <si>
-    <t>family-type</t>
+    <t>Group.extension:familyType</t>
+  </si>
+  <si>
+    <t>familyType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/family-type}
@@ -486,10 +486,10 @@
     <t>Extension containing Consanguinity</t>
   </si>
   <si>
-    <t>Group.extension:study-family-focus</t>
-  </si>
-  <si>
-    <t>study-family-focus</t>
+    <t>Group.extension:studyFamilyFocus</t>
+  </si>
+  <si>
+    <t>studyFamilyFocus</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/study-family-focus}
@@ -889,10 +889,10 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Group.member.entity.extension:family-role</t>
-  </si>
-  <si>
-    <t>family-role</t>
+    <t>Group.member.entity.extension:familyRole</t>
+  </si>
+  <si>
+    <t>familyRole</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/family-role}
@@ -1326,9 +1326,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.06640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.43359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-study-family.xlsx
+++ b/StructureDefinition-ncpi-study-family.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
